--- a/data/trans_orig/P8_2_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P8_2_R-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{378750B8-49D1-4596-90B6-CC9E9CDAFA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{29CF03B4-6FC6-45A7-9E14-4A2663A10012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CD6445AD-6A1C-45DA-9D5B-C97BB0733110}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E69115C2-E612-4EA1-9FF9-3BDA461A7DED}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="504">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
   <si>
     <t>Población con limitación a subir varios pisos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,19 +77,19 @@
     <t>2,55%</t>
   </si>
   <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>4,22%</t>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
   </si>
   <si>
     <t>2,63%</t>
   </si>
   <si>
-    <t>1,36%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
   </si>
   <si>
     <t>2,59%</t>
@@ -98,7 +98,7 @@
     <t>1,73%</t>
   </si>
   <si>
-    <t>3,87%</t>
+    <t>3,84%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,25 +107,25 @@
     <t>97,45%</t>
   </si>
   <si>
-    <t>95,78%</t>
-  </si>
-  <si>
-    <t>98,63%</t>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
   </si>
   <si>
     <t>97,37%</t>
   </si>
   <si>
-    <t>95,56%</t>
-  </si>
-  <si>
-    <t>98,64%</t>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
   </si>
   <si>
     <t>97,41%</t>
   </si>
   <si>
-    <t>96,13%</t>
+    <t>96,16%</t>
   </si>
   <si>
     <t>98,27%</t>
@@ -140,1159 +140,1141 @@
     <t>3,03%</t>
   </si>
   <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>95,92%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>9,66%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>90,34%</t>
+  </si>
+  <si>
+    <t>94,52%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>12,8%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>19,3%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>15,07%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>87,2%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>80,7%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>84,93%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>20,69%</t>
+  </si>
+  <si>
+    <t>29,21%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>26,42%</t>
+  </si>
+  <si>
+    <t>35,51%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>70,79%</t>
+  </si>
+  <si>
+    <t>79,31%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>64,49%</t>
+  </si>
+  <si>
+    <t>73,58%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>73,82%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>58,54%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>26,18%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>41,46%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>21,88%</t>
+  </si>
+  <si>
+    <t>24,69%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>17,74%</t>
+  </si>
+  <si>
+    <t>19,55%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>75,31%</t>
+  </si>
+  <si>
+    <t>78,12%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>80,45%</t>
+  </si>
+  <si>
+    <t>82,26%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>97,97%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,43%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>9,82%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>91,57%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>90,18%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>15,76%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>80,28%</t>
+  </si>
+  <si>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>84,24%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>16,71%</t>
+  </si>
+  <si>
+    <t>24,77%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>31,83%</t>
+  </si>
+  <si>
+    <t>41,38%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>25,78%</t>
+  </si>
+  <si>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>75,23%</t>
+  </si>
+  <si>
+    <t>83,29%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>58,62%</t>
+  </si>
+  <si>
+    <t>68,17%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>67,99%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>50,27%</t>
+  </si>
+  <si>
+    <t>59,29%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>68,36%</t>
+  </si>
+  <si>
+    <t>75,1%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>61,76%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>49,73%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>31,64%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>38,24%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>16,97%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>24,17%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>19,82%</t>
+  </si>
+  <si>
+    <t>21,9%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>83,03%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>75,83%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>80,18%</t>
+  </si>
+  <si>
+    <t>Población con limitación a subir varios pisos en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>97,11%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>7,47%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>92,53%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>94,78%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>94,9%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>15,33%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>84,67%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>16,1%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>27,37%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>29,27%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>75,95%</t>
+  </si>
+  <si>
+    <t>83,9%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>72,63%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>70,73%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>40,55%</t>
+  </si>
+  <si>
+    <t>48,03%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>56,21%</t>
+  </si>
+  <si>
+    <t>63,62%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>50,57%</t>
+  </si>
+  <si>
+    <t>55,99%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>51,97%</t>
+  </si>
+  <si>
+    <t>59,45%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>36,38%</t>
+  </si>
+  <si>
+    <t>43,79%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>44,01%</t>
+  </si>
+  <si>
+    <t>49,43%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>21,26%</t>
+  </si>
+  <si>
+    <t>24,24%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>75,76%</t>
+  </si>
+  <si>
+    <t>78,74%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>Población con limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
     <t>1,86%</t>
   </si>
   <si>
-    <t>4,67%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>7,78%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>5,63%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,33%</t>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
   </si>
   <si>
     <t>98,14%</t>
   </si>
   <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>92,22%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,37%</t>
-  </si>
-  <si>
-    <t>96,8%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
-  </si>
-  <si>
-    <t>9,46%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,92%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>96,67%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>90,54%</t>
-  </si>
-  <si>
-    <t>94,44%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,08%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>13,01%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>10,97%</t>
-  </si>
-  <si>
-    <t>15,09%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>80,51%</t>
-  </si>
-  <si>
-    <t>86,99%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>84,91%</t>
-  </si>
-  <si>
-    <t>89,03%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>20,77%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>26,04%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>31,37%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>64,73%</t>
-  </si>
-  <si>
-    <t>73,96%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>68,63%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>52,65%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>67,55%</t>
-  </si>
-  <si>
-    <t>73,97%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>58,46%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>47,35%</t>
-  </si>
-  <si>
-    <t>56,01%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>26,03%</t>
-  </si>
-  <si>
-    <t>32,45%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>36,03%</t>
-  </si>
-  <si>
-    <t>41,54%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>12,69%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>17,67%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>87,31%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>75,21%</t>
-  </si>
-  <si>
-    <t>78,0%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>82,33%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>99,09%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>98,23%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>96,84%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,32%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>91,68%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>20,11%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>11,71%</t>
-  </si>
-  <si>
-    <t>15,57%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>79,89%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>84,43%</t>
-  </si>
-  <si>
-    <t>88,29%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>16,61%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>32,02%</t>
-  </si>
-  <si>
-    <t>41,08%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>25,63%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>75,43%</t>
-  </si>
-  <si>
-    <t>83,39%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>58,92%</t>
-  </si>
-  <si>
-    <t>67,98%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>74,37%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>49,77%</t>
-  </si>
-  <si>
-    <t>58,7%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>74,83%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>61,84%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>50,23%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>25,17%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>38,16%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>14,32%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>24,35%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
-  </si>
-  <si>
-    <t>19,85%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>85,68%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>75,65%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>80,15%</t>
-  </si>
-  <si>
-    <t>Población con limitación a subir varios pisos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,92%</t>
-  </si>
-  <si>
-    <t>6,53%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,47%</t>
-  </si>
-  <si>
-    <t>97,08%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,74%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>96,26%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>90,79%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,73%</t>
-  </si>
-  <si>
-    <t>14,94%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>11,91%</t>
-  </si>
-  <si>
-    <t>17,72%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>15,43%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>85,06%</t>
-  </si>
-  <si>
-    <t>90,27%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>82,28%</t>
-  </si>
-  <si>
-    <t>88,09%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>84,57%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>27,86%</t>
-  </si>
-  <si>
-    <t>36,25%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>29,17%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>63,75%</t>
-  </si>
-  <si>
-    <t>72,14%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>70,83%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
-  </si>
-  <si>
-    <t>49,12%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>56,17%</t>
-  </si>
-  <si>
-    <t>64,04%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>50,47%</t>
-  </si>
-  <si>
-    <t>55,98%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>50,88%</t>
-  </si>
-  <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>35,96%</t>
-  </si>
-  <si>
-    <t>43,83%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>44,02%</t>
-  </si>
-  <si>
-    <t>49,53%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>21,44%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>17,78%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>75,54%</t>
-  </si>
-  <si>
-    <t>78,56%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>80,26%</t>
-  </si>
-  <si>
-    <t>82,22%</t>
-  </si>
-  <si>
-    <t>Población con limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>99,39%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
   </si>
   <si>
     <t>3,41%</t>
   </si>
   <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
   </si>
   <si>
     <t>2,35%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
+    <t>3,77%</t>
   </si>
   <si>
     <t>96,59%</t>
   </si>
   <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
   </si>
   <si>
     <t>97,65%</t>
   </si>
   <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>98,6%</t>
+    <t>96,23%</t>
   </si>
   <si>
     <t>5,53%</t>
@@ -1301,28 +1283,31 @@
     <t>3,72%</t>
   </si>
   <si>
-    <t>7,87%</t>
+    <t>7,94%</t>
   </si>
   <si>
     <t>6,97%</t>
   </si>
   <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
   </si>
   <si>
     <t>6,28%</t>
   </si>
   <si>
-    <t>5,06%</t>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
   </si>
   <si>
     <t>94,47%</t>
   </si>
   <si>
-    <t>92,13%</t>
+    <t>92,06%</t>
   </si>
   <si>
     <t>96,28%</t>
@@ -1331,226 +1316,229 @@
     <t>93,03%</t>
   </si>
   <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
   </si>
   <si>
     <t>93,72%</t>
   </si>
   <si>
-    <t>94,94%</t>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
   </si>
   <si>
     <t>17,63%</t>
   </si>
   <si>
-    <t>10,7%</t>
-  </si>
-  <si>
-    <t>38,49%</t>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
   </si>
   <si>
     <t>13,0%</t>
   </si>
   <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
   </si>
   <si>
     <t>15,28%</t>
   </si>
   <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>25,37%</t>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
   </si>
   <si>
     <t>82,37%</t>
   </si>
   <si>
-    <t>61,51%</t>
-  </si>
-  <si>
-    <t>89,3%</t>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
   </si>
   <si>
     <t>87,0%</t>
   </si>
   <si>
-    <t>83,86%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
   </si>
   <si>
     <t>84,72%</t>
   </si>
   <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>88,57%</t>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
   </si>
   <si>
     <t>21,41%</t>
   </si>
   <si>
-    <t>18,18%</t>
-  </si>
-  <si>
-    <t>24,82%</t>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
   </si>
   <si>
     <t>25,48%</t>
   </si>
   <si>
-    <t>22,97%</t>
-  </si>
-  <si>
-    <t>28,38%</t>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
   </si>
   <si>
     <t>23,44%</t>
   </si>
   <si>
-    <t>21,45%</t>
-  </si>
-  <si>
-    <t>25,86%</t>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
   </si>
   <si>
     <t>78,59%</t>
   </si>
   <si>
-    <t>75,18%</t>
-  </si>
-  <si>
-    <t>81,82%</t>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
   </si>
   <si>
     <t>74,52%</t>
   </si>
   <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>77,03%</t>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
   </si>
   <si>
     <t>76,56%</t>
   </si>
   <si>
-    <t>74,14%</t>
-  </si>
-  <si>
-    <t>78,55%</t>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
   </si>
   <si>
     <t>37,97%</t>
   </si>
   <si>
-    <t>34,65%</t>
-  </si>
-  <si>
-    <t>41,11%</t>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
   </si>
   <si>
     <t>53,59%</t>
   </si>
   <si>
-    <t>39,37%</t>
-  </si>
-  <si>
-    <t>61,08%</t>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
   </si>
   <si>
     <t>47,27%</t>
   </si>
   <si>
-    <t>51,06%</t>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
   </si>
   <si>
     <t>62,03%</t>
   </si>
   <si>
-    <t>58,89%</t>
-  </si>
-  <si>
-    <t>65,35%</t>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
   </si>
   <si>
     <t>46,41%</t>
   </si>
   <si>
-    <t>38,92%</t>
-  </si>
-  <si>
-    <t>60,63%</t>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
   </si>
   <si>
     <t>52,73%</t>
   </si>
   <si>
-    <t>48,94%</t>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
   </si>
   <si>
     <t>16,89%</t>
   </si>
   <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>21,74%</t>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
   </si>
   <si>
     <t>22,35%</t>
   </si>
   <si>
-    <t>20,25%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
+    <t>23,69%</t>
   </si>
   <si>
     <t>19,79%</t>
   </si>
   <si>
-    <t>18,63%</t>
-  </si>
-  <si>
-    <t>21,71%</t>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
   </si>
   <si>
     <t>83,11%</t>
   </si>
   <si>
-    <t>78,26%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
   </si>
   <si>
     <t>77,65%</t>
   </si>
   <si>
-    <t>76,26%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
+    <t>76,31%</t>
   </si>
   <si>
     <t>80,21%</t>
   </si>
   <si>
-    <t>78,29%</t>
-  </si>
-  <si>
-    <t>81,37%</t>
+    <t>78,05%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
   </si>
 </sst>
 </file>
@@ -1962,7 +1950,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6716E40F-4A1D-412B-8AEF-9D870F308691}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C784A54-E806-4771-B17F-94B8294CA3E9}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3094,7 +3082,7 @@
         <v>5285</v>
       </c>
       <c r="N23" s="7">
-        <v>5413827</v>
+        <v>5413828</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>141</v>
@@ -3145,7 +3133,7 @@
         <v>6511</v>
       </c>
       <c r="N24" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O24" s="7" t="s">
         <v>30</v>
@@ -3181,7 +3169,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DFFD7E5-B2A8-4DDB-A0AC-2A3DAB104D2B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54E6CC6-1B12-4B1E-ADDA-1D9B2CBB008A}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3460,13 +3448,13 @@
         <v>26397</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -3475,13 +3463,13 @@
         <v>26887</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>167</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>50</v>
@@ -3490,13 +3478,13 @@
         <v>53285</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3511,13 +3499,13 @@
         <v>660690</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>173</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>547</v>
@@ -3526,13 +3514,13 @@
         <v>583368</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>1188</v>
@@ -3541,13 +3529,13 @@
         <v>1244057</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>179</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>180</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3615,13 +3603,13 @@
         <v>38767</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>182</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -3630,13 +3618,13 @@
         <v>75281</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>184</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>185</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M10" s="7">
         <v>107</v>
@@ -3645,13 +3633,13 @@
         <v>114048</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>188</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3666,7 +3654,7 @@
         <v>641191</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>159</v>
+        <v>189</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>190</v>
@@ -3800,13 +3788,13 @@
         <v>167730</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>204</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3821,13 +3809,13 @@
         <v>549330</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>207</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>209</v>
       </c>
       <c r="H14" s="7">
         <v>446</v>
@@ -3836,13 +3824,13 @@
         <v>513756</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M14" s="7">
         <v>935</v>
@@ -3851,13 +3839,13 @@
         <v>1063086</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>213</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3925,13 +3913,13 @@
         <v>87017</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>216</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H16" s="7">
         <v>148</v>
@@ -3940,13 +3928,13 @@
         <v>163137</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M16" s="7">
         <v>229</v>
@@ -3955,13 +3943,13 @@
         <v>250154</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3976,13 +3964,13 @@
         <v>340395</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>224</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>225</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>226</v>
       </c>
       <c r="H17" s="7">
         <v>258</v>
@@ -3991,13 +3979,13 @@
         <v>284663</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="M17" s="7">
         <v>568</v>
@@ -4006,10 +3994,10 @@
         <v>625058</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>229</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>231</v>
@@ -4400,7 +4388,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{96096EC0-FFFC-4AD3-ABE0-1972902881F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0412A2CD-83C2-4E86-BB08-CE64BF82A92E}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4685,7 +4673,7 @@
         <v>288</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>289</v>
+        <v>16</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -4694,13 +4682,13 @@
         <v>24579</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>290</v>
       </c>
-      <c r="K7" s="7" t="s">
+      <c r="L7" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>292</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -4712,7 +4700,7 @@
         <v>272</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>11</v>
+        <v>292</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>293</v>
@@ -4733,10 +4721,10 @@
         <v>294</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>296</v>
       </c>
       <c r="H8" s="7">
         <v>555</v>
@@ -4745,13 +4733,13 @@
         <v>538965</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>298</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>299</v>
       </c>
       <c r="M8" s="7">
         <v>1107</v>
@@ -4763,10 +4751,10 @@
         <v>281</v>
       </c>
       <c r="P8" s="7" t="s">
+        <v>299</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4852,10 +4840,10 @@
         <v>304</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M10" s="7">
         <v>80</v>
@@ -4864,13 +4852,13 @@
         <v>84090</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +4873,13 @@
         <v>633017</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="H11" s="7">
         <v>619</v>
@@ -4900,13 +4888,13 @@
         <v>613376</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="M11" s="7">
         <v>1223</v>
@@ -4915,13 +4903,13 @@
         <v>1246393</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4989,13 +4977,13 @@
         <v>77788</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="H13" s="7">
         <v>89</v>
@@ -5004,13 +4992,13 @@
         <v>95271</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>321</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="M13" s="7">
         <v>158</v>
@@ -5019,13 +5007,13 @@
         <v>173059</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5040,13 +5028,13 @@
         <v>568260</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H14" s="7">
         <v>513</v>
@@ -5055,19 +5043,19 @@
         <v>553806</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>331</v>
+        <v>213</v>
       </c>
       <c r="M14" s="7">
         <v>1026</v>
       </c>
       <c r="N14" s="7">
-        <v>1122066</v>
+        <v>1122067</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>332</v>
@@ -5118,7 +5106,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295125</v>
+        <v>1295126</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5150,7 +5138,7 @@
         <v>336</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>254</v>
+        <v>337</v>
       </c>
       <c r="H16" s="7">
         <v>140</v>
@@ -5159,13 +5147,13 @@
         <v>158717</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="M16" s="7">
         <v>223</v>
@@ -5174,13 +5162,13 @@
         <v>255568</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5195,13 +5183,13 @@
         <v>381067</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>264</v>
+        <v>345</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H17" s="7">
         <v>293</v>
@@ -5210,13 +5198,13 @@
         <v>338132</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M17" s="7">
         <v>634</v>
@@ -5225,13 +5213,13 @@
         <v>719199</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5299,13 +5287,13 @@
         <v>261628</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H19" s="7">
         <v>387</v>
@@ -5314,13 +5302,13 @@
         <v>468094</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M19" s="7">
         <v>671</v>
@@ -5329,13 +5317,13 @@
         <v>729722</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5350,13 +5338,13 @@
         <v>329700</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="H20" s="7">
         <v>268</v>
@@ -5365,13 +5353,13 @@
         <v>309837</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="M20" s="7">
         <v>611</v>
@@ -5380,13 +5368,13 @@
         <v>639537</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,13 +5442,13 @@
         <v>491981</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>371</v>
+        <v>205</v>
       </c>
       <c r="H22" s="7">
         <v>700</v>
@@ -5469,13 +5457,13 @@
         <v>808672</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M22" s="7">
         <v>1188</v>
@@ -5484,13 +5472,13 @@
         <v>1300652</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,10 +5493,10 @@
         <v>2902369</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>379</v>
+        <v>212</v>
       </c>
       <c r="G23" s="7" t="s">
         <v>380</v>
@@ -5619,7 +5607,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A2A5B5-7F6C-4F0B-8346-DBD0004E3E97}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7E26A1-F47C-4583-B920-E9E59FAF7605}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5743,13 +5731,13 @@
         <v>5393</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>388</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>389</v>
-      </c>
       <c r="G4" s="7" t="s">
-        <v>390</v>
+        <v>293</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -5761,10 +5749,10 @@
         <v>271</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>392</v>
+        <v>171</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -5773,13 +5761,13 @@
         <v>13642</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>33</v>
+        <v>390</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>392</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5794,13 +5782,13 @@
         <v>372286</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>394</v>
+        <v>23</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>395</v>
+        <v>299</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="H5" s="7">
         <v>202</v>
@@ -5812,10 +5800,10 @@
         <v>279</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>397</v>
+        <v>178</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M5" s="7">
         <v>372</v>
@@ -5824,13 +5812,13 @@
         <v>718994</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>43</v>
+        <v>395</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>28</v>
+        <v>396</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5898,13 +5886,13 @@
         <v>14613</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -5913,13 +5901,13 @@
         <v>7216</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>403</v>
+        <v>15</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -5928,13 +5916,13 @@
         <v>21829</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>407</v>
+        <v>15</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5949,13 +5937,13 @@
         <v>413783</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="H8" s="7">
         <v>453</v>
@@ -5964,13 +5952,13 @@
         <v>491999</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>412</v>
+        <v>26</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="M8" s="7">
         <v>744</v>
@@ -5979,13 +5967,13 @@
         <v>905782</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>417</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6053,13 +6041,13 @@
         <v>30839</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="H10" s="7">
         <v>61</v>
@@ -6068,13 +6056,13 @@
         <v>42490</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="M10" s="7">
         <v>88</v>
@@ -6083,13 +6071,13 @@
         <v>73330</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>37</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6104,13 +6092,13 @@
         <v>526413</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="H11" s="7">
         <v>786</v>
@@ -6119,28 +6107,28 @@
         <v>567353</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="M11" s="7">
         <v>1305</v>
       </c>
       <c r="N11" s="7">
-        <v>1093765</v>
+        <v>1093764</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>45</v>
+        <v>428</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -6182,7 +6170,7 @@
         <v>1393</v>
       </c>
       <c r="N12" s="7">
-        <v>1167095</v>
+        <v>1167094</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -6208,13 +6196,13 @@
         <v>127640</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="H13" s="7">
         <v>138</v>
@@ -6223,28 +6211,28 @@
         <v>97139</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="M13" s="7">
         <v>207</v>
       </c>
       <c r="N13" s="7">
-        <v>224779</v>
+        <v>224778</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6259,13 +6247,13 @@
         <v>596350</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="H14" s="7">
         <v>1003</v>
@@ -6274,13 +6262,13 @@
         <v>650122</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="M14" s="7">
         <v>1599</v>
@@ -6289,13 +6277,13 @@
         <v>1246473</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6337,7 +6325,7 @@
         <v>1806</v>
       </c>
       <c r="N15" s="7">
-        <v>1471252</v>
+        <v>1471251</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -6363,13 +6351,13 @@
         <v>128475</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="H16" s="7">
         <v>249</v>
@@ -6378,13 +6366,13 @@
         <v>152128</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="M16" s="7">
         <v>382</v>
@@ -6393,13 +6381,13 @@
         <v>280603</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6414,13 +6402,13 @@
         <v>471682</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="H17" s="7">
         <v>753</v>
@@ -6429,13 +6417,13 @@
         <v>444935</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="M17" s="7">
         <v>1283</v>
@@ -6444,13 +6432,13 @@
         <v>916617</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6518,13 +6506,13 @@
         <v>264639</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="H19" s="7">
         <v>1015</v>
@@ -6533,13 +6521,13 @@
         <v>549823</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="M19" s="7">
         <v>1401</v>
@@ -6548,13 +6536,13 @@
         <v>814462</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>339</v>
+        <v>473</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -6569,13 +6557,13 @@
         <v>432297</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="H20" s="7">
         <v>692</v>
@@ -6584,13 +6572,13 @@
         <v>476184</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="M20" s="7">
         <v>1333</v>
@@ -6599,13 +6587,13 @@
         <v>908482</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>346</v>
+        <v>483</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6673,13 +6661,13 @@
         <v>571599</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>484</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>485</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>486</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>487</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>488</v>
       </c>
       <c r="H22" s="7">
         <v>1476</v>
@@ -6688,13 +6676,13 @@
         <v>857045</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>490</v>
+        <v>257</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="M22" s="7">
         <v>2104</v>
@@ -6703,13 +6691,13 @@
         <v>1428644</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6724,13 +6712,13 @@
         <v>2812811</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="H23" s="7">
         <v>3889</v>
@@ -6739,13 +6727,13 @@
         <v>2977301</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>500</v>
+        <v>267</v>
       </c>
       <c r="M23" s="7">
         <v>6636</v>
@@ -6754,13 +6742,13 @@
         <v>5790112</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P8_2_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P8_2_R-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{29CF03B4-6FC6-45A7-9E14-4A2663A10012}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1C7BDAE6-0115-4FF4-BAE2-71F05271AE79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{E69115C2-E612-4EA1-9FF9-3BDA461A7DED}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{4337DEC9-F5CC-4F50-9889-7CE709AD0167}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="500">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="948" uniqueCount="502">
   <si>
     <t>Población con limitación a subir varios pisos en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -77,1459 +77,1465 @@
     <t>2,55%</t>
   </si>
   <si>
+    <t>1,33%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,63%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>3,78%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
+    <t>98,67%</t>
+  </si>
+  <si>
+    <t>97,37%</t>
+  </si>
+  <si>
+    <t>95,31%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,22%</t>
+  </si>
+  <si>
+    <t>98,25%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>95,73%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>94,4%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>16,13%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>83,87%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>84,92%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>24,76%</t>
+  </si>
+  <si>
+    <t>20,77%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>30,87%</t>
+  </si>
+  <si>
+    <t>26,31%</t>
+  </si>
+  <si>
+    <t>35,77%</t>
+  </si>
+  <si>
+    <t>27,88%</t>
+  </si>
+  <si>
+    <t>24,93%</t>
+  </si>
+  <si>
+    <t>31,33%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>79,23%</t>
+  </si>
+  <si>
+    <t>69,13%</t>
+  </si>
+  <si>
+    <t>64,23%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>72,12%</t>
+  </si>
+  <si>
+    <t>68,67%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>48,38%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>52,72%</t>
+  </si>
+  <si>
+    <t>70,81%</t>
+  </si>
+  <si>
+    <t>66,97%</t>
+  </si>
+  <si>
+    <t>74,23%</t>
+  </si>
+  <si>
+    <t>61,25%</t>
+  </si>
+  <si>
+    <t>58,27%</t>
+  </si>
+  <si>
+    <t>63,91%</t>
+  </si>
+  <si>
+    <t>51,62%</t>
+  </si>
+  <si>
+    <t>47,28%</t>
+  </si>
+  <si>
+    <t>55,93%</t>
+  </si>
+  <si>
+    <t>29,19%</t>
+  </si>
+  <si>
+    <t>25,77%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>38,75%</t>
+  </si>
+  <si>
+    <t>36,09%</t>
+  </si>
+  <si>
+    <t>41,73%</t>
+  </si>
+  <si>
+    <t>13,93%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>15,2%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>18,66%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>86,07%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>78,22%</t>
+  </si>
+  <si>
+    <t>81,34%</t>
+  </si>
+  <si>
+    <t>80,32%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población con limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>98,06%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>98,98%</t>
+  </si>
+  <si>
+    <t>96,42%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>5,55%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>2,92%</t>
+  </si>
+  <si>
+    <t>6,53%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>96,16%</t>
+  </si>
+  <si>
+    <t>94,45%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>93,47%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>10,59%</t>
+  </si>
+  <si>
+    <t>8,35%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>89,41%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>91,65%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>10,62%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>13,29%</t>
+  </si>
+  <si>
+    <t>16,63%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>19,77%</t>
+  </si>
+  <si>
+    <t>13,63%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>89,38%</t>
+  </si>
+  <si>
+    <t>86,71%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>83,37%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>86,37%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>20,36%</t>
+  </si>
+  <si>
+    <t>16,27%</t>
+  </si>
+  <si>
+    <t>24,36%</t>
+  </si>
+  <si>
+    <t>36,43%</t>
+  </si>
+  <si>
+    <t>32,17%</t>
+  </si>
+  <si>
+    <t>41,51%</t>
+  </si>
+  <si>
+    <t>28,58%</t>
+  </si>
+  <si>
+    <t>25,5%</t>
+  </si>
+  <si>
+    <t>31,67%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>75,64%</t>
+  </si>
+  <si>
+    <t>83,73%</t>
+  </si>
+  <si>
+    <t>63,57%</t>
+  </si>
+  <si>
+    <t>58,49%</t>
+  </si>
+  <si>
+    <t>67,83%</t>
+  </si>
+  <si>
+    <t>71,42%</t>
+  </si>
+  <si>
+    <t>68,33%</t>
+  </si>
+  <si>
+    <t>74,5%</t>
+  </si>
+  <si>
+    <t>54,76%</t>
+  </si>
+  <si>
+    <t>50,26%</t>
+  </si>
+  <si>
+    <t>59,15%</t>
+  </si>
+  <si>
+    <t>71,78%</t>
+  </si>
+  <si>
+    <t>68,23%</t>
+  </si>
+  <si>
+    <t>75,01%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>67,15%</t>
+  </si>
+  <si>
+    <t>45,24%</t>
+  </si>
+  <si>
+    <t>40,85%</t>
+  </si>
+  <si>
+    <t>49,74%</t>
+  </si>
+  <si>
+    <t>28,22%</t>
+  </si>
+  <si>
+    <t>24,99%</t>
+  </si>
+  <si>
+    <t>31,77%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>32,85%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>16,85%</t>
+  </si>
+  <si>
+    <t>25,74%</t>
+  </si>
+  <si>
+    <t>24,22%</t>
+  </si>
+  <si>
+    <t>27,19%</t>
+  </si>
+  <si>
+    <t>20,75%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>83,15%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>74,26%</t>
+  </si>
+  <si>
+    <t>72,81%</t>
+  </si>
+  <si>
+    <t>75,78%</t>
+  </si>
+  <si>
+    <t>79,25%</t>
+  </si>
+  <si>
+    <t>Población con limitación a subir varios pisos en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,81%</t>
+  </si>
+  <si>
+    <t>0,23%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>97,79%</t>
+  </si>
+  <si>
+    <t>99,77%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>94,36%</t>
+  </si>
+  <si>
+    <t>98,05%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,73%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>97,27%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>94,61%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>94,51%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>17,77%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>11,39%</t>
+  </si>
+  <si>
+    <t>15,69%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>90,43%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>82,23%</t>
+  </si>
+  <si>
+    <t>86,64%</t>
+  </si>
+  <si>
+    <t>84,31%</t>
+  </si>
+  <si>
+    <t>88,61%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>31,94%</t>
+  </si>
+  <si>
+    <t>27,67%</t>
+  </si>
+  <si>
+    <t>36,64%</t>
+  </si>
+  <si>
+    <t>26,22%</t>
+  </si>
+  <si>
+    <t>23,41%</t>
+  </si>
+  <si>
+    <t>29,2%</t>
+  </si>
+  <si>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>63,36%</t>
+  </si>
+  <si>
+    <t>72,33%</t>
+  </si>
+  <si>
+    <t>73,78%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>76,59%</t>
+  </si>
+  <si>
+    <t>44,24%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>48,21%</t>
+  </si>
+  <si>
+    <t>60,17%</t>
+  </si>
+  <si>
+    <t>56,26%</t>
+  </si>
+  <si>
+    <t>64,01%</t>
+  </si>
+  <si>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>50,67%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>55,76%</t>
+  </si>
+  <si>
+    <t>51,79%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>39,83%</t>
+  </si>
+  <si>
+    <t>35,99%</t>
+  </si>
+  <si>
+    <t>43,74%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>49,33%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>22,81%</t>
+  </si>
+  <si>
+    <t>21,39%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>77,19%</t>
+  </si>
+  <si>
+    <t>78,61%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>Población con limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
+  </si>
+  <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,63%</t>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>4,75%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>0,72%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>99,22%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>99,28%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>6,23%</t>
   </si>
   <si>
     <t>1,45%</t>
   </si>
   <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>97,37%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>3,77%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>93,77%</t>
+  </si>
+  <si>
+    <t>98,22%</t>
   </si>
   <si>
     <t>98,55%</t>
   </si>
   <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>96,16%</t>
-  </si>
-  <si>
-    <t>98,27%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>95,92%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>9,66%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>96,63%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>90,34%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>12,8%</t>
-  </si>
-  <si>
-    <t>16,13%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>19,3%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>15,07%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>87,2%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>83,87%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>84,93%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>24,76%</t>
-  </si>
-  <si>
-    <t>20,69%</t>
-  </si>
-  <si>
-    <t>29,21%</t>
-  </si>
-  <si>
-    <t>30,87%</t>
-  </si>
-  <si>
-    <t>26,42%</t>
-  </si>
-  <si>
-    <t>35,51%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>31,33%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>70,79%</t>
-  </si>
-  <si>
-    <t>79,31%</t>
-  </si>
-  <si>
-    <t>69,13%</t>
-  </si>
-  <si>
-    <t>64,49%</t>
-  </si>
-  <si>
-    <t>73,58%</t>
-  </si>
-  <si>
-    <t>72,12%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>48,38%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>52,72%</t>
-  </si>
-  <si>
-    <t>70,81%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>61,25%</t>
-  </si>
-  <si>
-    <t>58,54%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>51,62%</t>
-  </si>
-  <si>
-    <t>47,28%</t>
-  </si>
-  <si>
-    <t>55,93%</t>
-  </si>
-  <si>
-    <t>29,19%</t>
-  </si>
-  <si>
-    <t>26,18%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>38,75%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>41,46%</t>
-  </si>
-  <si>
-    <t>13,93%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>24,69%</t>
-  </si>
-  <si>
-    <t>18,66%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>19,55%</t>
-  </si>
-  <si>
-    <t>86,07%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>75,31%</t>
-  </si>
-  <si>
-    <t>78,12%</t>
-  </si>
-  <si>
-    <t>81,34%</t>
-  </si>
-  <si>
-    <t>80,45%</t>
-  </si>
-  <si>
-    <t>82,26%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población con limitación a subir varios pisos en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>3,58%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>98,06%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>99,03%</t>
-  </si>
-  <si>
-    <t>96,42%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>97,97%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>4,41%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>95,59%</t>
-  </si>
-  <si>
-    <t>93,49%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>94,51%</t>
-  </si>
-  <si>
-    <t>96,9%</t>
-  </si>
-  <si>
-    <t>5,7%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>9,82%</t>
-  </si>
-  <si>
-    <t>94,3%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>89,41%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>90,18%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>10,62%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>13,63%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>19,72%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>15,76%</t>
-  </si>
-  <si>
-    <t>89,38%</t>
-  </si>
-  <si>
-    <t>86,37%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>83,37%</t>
-  </si>
-  <si>
-    <t>80,28%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>84,24%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>16,71%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>36,43%</t>
-  </si>
-  <si>
-    <t>31,83%</t>
-  </si>
-  <si>
-    <t>41,38%</t>
-  </si>
-  <si>
-    <t>28,58%</t>
-  </si>
-  <si>
-    <t>25,78%</t>
-  </si>
-  <si>
-    <t>32,01%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>75,23%</t>
-  </si>
-  <si>
-    <t>83,29%</t>
-  </si>
-  <si>
-    <t>63,57%</t>
-  </si>
-  <si>
-    <t>58,62%</t>
-  </si>
-  <si>
-    <t>68,17%</t>
-  </si>
-  <si>
-    <t>71,42%</t>
-  </si>
-  <si>
-    <t>67,99%</t>
-  </si>
-  <si>
-    <t>74,22%</t>
-  </si>
-  <si>
-    <t>54,76%</t>
-  </si>
-  <si>
-    <t>50,27%</t>
-  </si>
-  <si>
-    <t>59,29%</t>
-  </si>
-  <si>
-    <t>71,78%</t>
-  </si>
-  <si>
-    <t>68,36%</t>
-  </si>
-  <si>
-    <t>75,1%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
-  </si>
-  <si>
-    <t>45,24%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>49,73%</t>
-  </si>
-  <si>
-    <t>28,22%</t>
-  </si>
-  <si>
-    <t>24,9%</t>
-  </si>
-  <si>
-    <t>31,64%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>16,97%</t>
-  </si>
-  <si>
-    <t>25,74%</t>
-  </si>
-  <si>
-    <t>24,17%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>20,75%</t>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>96,23%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>3,72%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>6,97%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>96,28%</t>
+  </si>
+  <si>
+    <t>93,03%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>17,63%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>34,41%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>10,81%</t>
+  </si>
+  <si>
+    <t>16,12%</t>
+  </si>
+  <si>
+    <t>15,28%</t>
+  </si>
+  <si>
+    <t>11,5%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>82,37%</t>
+  </si>
+  <si>
+    <t>65,59%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>87,0%</t>
+  </si>
+  <si>
+    <t>83,88%</t>
+  </si>
+  <si>
+    <t>89,19%</t>
+  </si>
+  <si>
+    <t>84,72%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>88,5%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>18,26%</t>
+  </si>
+  <si>
+    <t>24,78%</t>
+  </si>
+  <si>
+    <t>25,48%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>28,61%</t>
+  </si>
+  <si>
+    <t>23,44%</t>
+  </si>
+  <si>
+    <t>21,35%</t>
+  </si>
+  <si>
+    <t>25,7%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>75,22%</t>
+  </si>
+  <si>
+    <t>81,74%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>76,56%</t>
+  </si>
+  <si>
+    <t>74,3%</t>
+  </si>
+  <si>
+    <t>78,65%</t>
+  </si>
+  <si>
+    <t>37,97%</t>
+  </si>
+  <si>
+    <t>34,99%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>53,59%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>60,85%</t>
+  </si>
+  <si>
+    <t>47,27%</t>
+  </si>
+  <si>
+    <t>37,12%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>62,03%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>65,01%</t>
+  </si>
+  <si>
+    <t>46,41%</t>
+  </si>
+  <si>
+    <t>39,15%</t>
+  </si>
+  <si>
+    <t>62,84%</t>
+  </si>
+  <si>
+    <t>52,73%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>62,88%</t>
+  </si>
+  <si>
+    <t>16,89%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>21,63%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
   </si>
   <si>
     <t>19,82%</t>
   </si>
   <si>
-    <t>21,9%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>83,03%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>75,83%</t>
-  </si>
-  <si>
-    <t>79,25%</t>
-  </si>
-  <si>
-    <t>78,1%</t>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>21,95%</t>
+  </si>
+  <si>
+    <t>83,11%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>77,65%</t>
+  </si>
+  <si>
+    <t>76,31%</t>
   </si>
   <si>
     <t>80,18%</t>
-  </si>
-  <si>
-    <t>Población con limitación a subir varios pisos en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>0,81%</t>
-  </si>
-  <si>
-    <t>0,23%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>99,19%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>99,77%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>98,05%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>2,56%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>93,59%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>97,44%</t>
-  </si>
-  <si>
-    <t>5,39%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>94,61%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>94,78%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>94,9%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>15,33%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>84,67%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
-  </si>
-  <si>
-    <t>16,1%</t>
-  </si>
-  <si>
-    <t>24,05%</t>
-  </si>
-  <si>
-    <t>31,94%</t>
-  </si>
-  <si>
-    <t>27,37%</t>
-  </si>
-  <si>
-    <t>35,99%</t>
-  </si>
-  <si>
-    <t>26,22%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>29,27%</t>
-  </si>
-  <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>75,95%</t>
-  </si>
-  <si>
-    <t>83,9%</t>
-  </si>
-  <si>
-    <t>68,06%</t>
-  </si>
-  <si>
-    <t>64,01%</t>
-  </si>
-  <si>
-    <t>72,63%</t>
-  </si>
-  <si>
-    <t>73,78%</t>
-  </si>
-  <si>
-    <t>70,73%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>44,24%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>48,03%</t>
-  </si>
-  <si>
-    <t>60,17%</t>
-  </si>
-  <si>
-    <t>56,21%</t>
-  </si>
-  <si>
-    <t>63,62%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>50,57%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>51,97%</t>
-  </si>
-  <si>
-    <t>59,45%</t>
-  </si>
-  <si>
-    <t>39,83%</t>
-  </si>
-  <si>
-    <t>36,38%</t>
-  </si>
-  <si>
-    <t>43,79%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>44,01%</t>
-  </si>
-  <si>
-    <t>49,43%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>22,81%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>24,24%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>77,19%</t>
-  </si>
-  <si>
-    <t>75,76%</t>
-  </si>
-  <si>
-    <t>78,74%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>Población con limitación a subir varios pisos en 2023 (Tasa respuesta: 99,97%)</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>1,86%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>99,22%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>99,28%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>6,23%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>93,77%</t>
-  </si>
-  <si>
-    <t>98,22%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>3,72%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>6,97%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,11%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>94,47%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>96,28%</t>
-  </si>
-  <si>
-    <t>93,03%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>94,89%</t>
-  </si>
-  <si>
-    <t>17,63%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>34,41%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>16,12%</t>
-  </si>
-  <si>
-    <t>15,28%</t>
-  </si>
-  <si>
-    <t>11,5%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>82,37%</t>
-  </si>
-  <si>
-    <t>65,59%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>87,0%</t>
-  </si>
-  <si>
-    <t>83,88%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>84,72%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>88,5%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>18,26%</t>
-  </si>
-  <si>
-    <t>24,78%</t>
-  </si>
-  <si>
-    <t>25,48%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>28,61%</t>
-  </si>
-  <si>
-    <t>23,44%</t>
-  </si>
-  <si>
-    <t>21,35%</t>
-  </si>
-  <si>
-    <t>25,7%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>75,22%</t>
-  </si>
-  <si>
-    <t>81,74%</t>
-  </si>
-  <si>
-    <t>74,52%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>76,56%</t>
-  </si>
-  <si>
-    <t>74,3%</t>
-  </si>
-  <si>
-    <t>78,65%</t>
-  </si>
-  <si>
-    <t>37,97%</t>
-  </si>
-  <si>
-    <t>34,99%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>53,59%</t>
-  </si>
-  <si>
-    <t>37,16%</t>
-  </si>
-  <si>
-    <t>60,85%</t>
-  </si>
-  <si>
-    <t>47,27%</t>
-  </si>
-  <si>
-    <t>37,12%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>62,03%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>65,01%</t>
-  </si>
-  <si>
-    <t>46,41%</t>
-  </si>
-  <si>
-    <t>39,15%</t>
-  </si>
-  <si>
-    <t>62,84%</t>
-  </si>
-  <si>
-    <t>52,73%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>62,88%</t>
-  </si>
-  <si>
-    <t>16,89%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>21,63%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>21,95%</t>
-  </si>
-  <si>
-    <t>83,11%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>77,65%</t>
-  </si>
-  <si>
-    <t>76,31%</t>
   </si>
   <si>
     <t>80,21%</t>
@@ -1950,7 +1956,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C784A54-E806-4771-B17F-94B8294CA3E9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8522FBA5-5533-4CC7-9BB2-73952DB940C5}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -3052,7 +3058,7 @@
         <v>2747</v>
       </c>
       <c r="D23" s="7">
-        <v>2820228</v>
+        <v>2820227</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>135</v>
@@ -3103,7 +3109,7 @@
         <v>3214</v>
       </c>
       <c r="D24" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>30</v>
@@ -3169,7 +3175,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E54E6CC6-1B12-4B1E-ADDA-1D9B2CBB008A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69128D0-5D56-4686-B2EB-A75B06C247FF}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3448,13 +3454,13 @@
         <v>26397</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>164</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -3463,13 +3469,13 @@
         <v>26887</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="M7" s="7">
         <v>50</v>
@@ -3478,13 +3484,13 @@
         <v>53285</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3499,13 +3505,13 @@
         <v>660690</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>28</v>
+        <v>173</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="H8" s="7">
         <v>547</v>
@@ -3514,13 +3520,13 @@
         <v>583368</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="M8" s="7">
         <v>1188</v>
@@ -3529,13 +3535,13 @@
         <v>1244057</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3603,13 +3609,13 @@
         <v>38767</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="H10" s="7">
         <v>70</v>
@@ -3618,13 +3624,13 @@
         <v>75281</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="M10" s="7">
         <v>107</v>
@@ -3633,13 +3639,13 @@
         <v>114048</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3654,13 +3660,13 @@
         <v>641191</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="H11" s="7">
         <v>597</v>
@@ -3669,13 +3675,13 @@
         <v>635569</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M11" s="7">
         <v>1210</v>
@@ -3684,13 +3690,13 @@
         <v>1276760</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3758,13 +3764,13 @@
         <v>65287</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H13" s="7">
         <v>93</v>
@@ -3773,13 +3779,13 @@
         <v>102443</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="M13" s="7">
         <v>152</v>
@@ -3788,13 +3794,13 @@
         <v>167730</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3809,13 +3815,13 @@
         <v>549330</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="H14" s="7">
         <v>446</v>
@@ -3824,13 +3830,13 @@
         <v>513756</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="M14" s="7">
         <v>935</v>
@@ -3839,13 +3845,13 @@
         <v>1063086</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3913,13 +3919,13 @@
         <v>87017</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="H16" s="7">
         <v>148</v>
@@ -3928,13 +3934,13 @@
         <v>163137</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="M16" s="7">
         <v>229</v>
@@ -3943,13 +3949,13 @@
         <v>250154</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3964,13 +3970,13 @@
         <v>340395</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="H17" s="7">
         <v>258</v>
@@ -3979,13 +3985,13 @@
         <v>284663</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="M17" s="7">
         <v>568</v>
@@ -3994,13 +4000,13 @@
         <v>625058</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4068,13 +4074,13 @@
         <v>306463</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="H19" s="7">
         <v>497</v>
@@ -4083,13 +4089,13 @@
         <v>532559</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="M19" s="7">
         <v>769</v>
@@ -4098,13 +4104,13 @@
         <v>839022</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4119,13 +4125,13 @@
         <v>253174</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="H20" s="7">
         <v>196</v>
@@ -4134,13 +4140,13 @@
         <v>209329</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="M20" s="7">
         <v>428</v>
@@ -4149,13 +4155,13 @@
         <v>462503</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4223,13 +4229,13 @@
         <v>532763</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="H22" s="7">
         <v>847</v>
@@ -4238,13 +4244,13 @@
         <v>915715</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="M22" s="7">
         <v>1331</v>
@@ -4253,13 +4259,13 @@
         <v>1448478</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>257</v>
+        <v>205</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>258</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4274,13 +4280,13 @@
         <v>2890095</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="H23" s="7">
         <v>2450</v>
@@ -4289,13 +4295,13 @@
         <v>2641507</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M23" s="7">
         <v>5172</v>
@@ -4304,13 +4310,13 @@
         <v>5531602</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>266</v>
+        <v>140</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -4388,7 +4394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0412A2CD-83C2-4E86-BB08-CE64BF82A92E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{919B68BD-31AF-4A3B-AB71-C872D82EFA86}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4673,7 +4679,7 @@
         <v>288</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>16</v>
+        <v>289</v>
       </c>
       <c r="H7" s="7">
         <v>24</v>
@@ -4682,13 +4688,13 @@
         <v>24579</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M7" s="7">
         <v>39</v>
@@ -4700,7 +4706,7 @@
         <v>272</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>292</v>
+        <v>17</v>
       </c>
       <c r="Q7" s="7" t="s">
         <v>293</v>
@@ -4721,10 +4727,10 @@
         <v>294</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>25</v>
+        <v>295</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="H8" s="7">
         <v>555</v>
@@ -4733,13 +4739,13 @@
         <v>538965</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="M8" s="7">
         <v>1107</v>
@@ -4751,10 +4757,10 @@
         <v>281</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>300</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4837,13 +4843,13 @@
         <v>48010</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M10" s="7">
         <v>80</v>
@@ -4852,13 +4858,13 @@
         <v>84090</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>307</v>
+        <v>292</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>308</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4873,13 +4879,13 @@
         <v>633017</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="H11" s="7">
         <v>619</v>
@@ -4888,13 +4894,13 @@
         <v>613376</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="M11" s="7">
         <v>1223</v>
@@ -4903,13 +4909,13 @@
         <v>1246393</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>318</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4977,13 +4983,13 @@
         <v>77788</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="H13" s="7">
         <v>89</v>
@@ -4992,13 +4998,13 @@
         <v>95271</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>204</v>
+        <v>313</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M13" s="7">
         <v>158</v>
@@ -5007,13 +5013,13 @@
         <v>173059</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5028,13 +5034,13 @@
         <v>568260</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="H14" s="7">
         <v>513</v>
@@ -5043,28 +5049,28 @@
         <v>553806</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>213</v>
+        <v>321</v>
       </c>
       <c r="M14" s="7">
         <v>1026</v>
       </c>
       <c r="N14" s="7">
-        <v>1122067</v>
+        <v>1122066</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5106,7 +5112,7 @@
         <v>1184</v>
       </c>
       <c r="N15" s="7">
-        <v>1295126</v>
+        <v>1295125</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5132,13 +5138,13 @@
         <v>96851</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="H16" s="7">
         <v>140</v>
@@ -5147,13 +5153,13 @@
         <v>158717</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="M16" s="7">
         <v>223</v>
@@ -5162,13 +5168,13 @@
         <v>255568</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5183,13 +5189,13 @@
         <v>381067</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H17" s="7">
         <v>293</v>
@@ -5198,13 +5204,13 @@
         <v>338132</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="M17" s="7">
         <v>634</v>
@@ -5213,13 +5219,13 @@
         <v>719199</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5287,13 +5293,13 @@
         <v>261628</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H19" s="7">
         <v>387</v>
@@ -5302,13 +5308,13 @@
         <v>468094</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="M19" s="7">
         <v>671</v>
@@ -5317,13 +5323,13 @@
         <v>729722</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5338,13 +5344,13 @@
         <v>329700</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="H20" s="7">
         <v>268</v>
@@ -5353,13 +5359,13 @@
         <v>309837</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="M20" s="7">
         <v>611</v>
@@ -5368,13 +5374,13 @@
         <v>639537</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5442,13 +5448,13 @@
         <v>491981</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>372</v>
+        <v>202</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>205</v>
+        <v>366</v>
       </c>
       <c r="H22" s="7">
         <v>700</v>
@@ -5457,13 +5463,13 @@
         <v>808672</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>375</v>
+        <v>220</v>
       </c>
       <c r="M22" s="7">
         <v>1188</v>
@@ -5472,13 +5478,13 @@
         <v>1300652</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5493,13 +5499,13 @@
         <v>2902369</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>212</v>
+        <v>373</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>380</v>
+        <v>210</v>
       </c>
       <c r="H23" s="7">
         <v>2638</v>
@@ -5508,13 +5514,13 @@
         <v>2735870</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>382</v>
+        <v>228</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>383</v>
+        <v>375</v>
       </c>
       <c r="M23" s="7">
         <v>5381</v>
@@ -5523,13 +5529,13 @@
         <v>5638240</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>385</v>
+        <v>377</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -5607,7 +5613,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA7E26A1-F47C-4583-B920-E9E59FAF7605}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CB7B8F3-6C53-48AF-AAB4-FC6DE73C2377}">
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5624,7 +5630,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>387</v>
+        <v>379</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5731,13 +5737,13 @@
         <v>5393</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>12</v>
+        <v>380</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>293</v>
+        <v>382</v>
       </c>
       <c r="H4" s="7">
         <v>5</v>
@@ -5746,13 +5752,13 @@
         <v>8249</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>271</v>
+        <v>383</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>171</v>
+        <v>304</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -5761,13 +5767,13 @@
         <v>13642</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5782,13 +5788,13 @@
         <v>372286</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>23</v>
+        <v>388</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>299</v>
+        <v>389</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="H5" s="7">
         <v>202</v>
@@ -5797,13 +5803,13 @@
         <v>346708</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>279</v>
+        <v>391</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>178</v>
+        <v>311</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="M5" s="7">
         <v>372</v>
@@ -5812,13 +5818,13 @@
         <v>718994</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>397</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5886,13 +5892,13 @@
         <v>14613</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>400</v>
       </c>
       <c r="H7" s="7">
         <v>8</v>
@@ -5901,13 +5907,13 @@
         <v>7216</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>15</v>
+        <v>399</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -5916,13 +5922,13 @@
         <v>21829</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>403</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5937,13 +5943,13 @@
         <v>413783</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>405</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>406</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>407</v>
       </c>
       <c r="H8" s="7">
         <v>453</v>
@@ -5952,7 +5958,7 @@
         <v>491999</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>26</v>
+        <v>407</v>
       </c>
       <c r="K8" s="7" t="s">
         <v>408</v>
@@ -5973,7 +5979,7 @@
         <v>411</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>26</v>
+        <v>407</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6679,10 +6685,10 @@
         <v>487</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>257</v>
+        <v>488</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="M22" s="7">
         <v>2104</v>
@@ -6691,13 +6697,13 @@
         <v>1428644</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6712,13 +6718,13 @@
         <v>2812811</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="H23" s="7">
         <v>3889</v>
@@ -6727,13 +6733,13 @@
         <v>2977301</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>267</v>
+        <v>498</v>
       </c>
       <c r="M23" s="7">
         <v>6636</v>
@@ -6742,13 +6748,13 @@
         <v>5790112</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
